--- a/data/gk/list_matched_gk.xlsx
+++ b/data/gk/list_matched_gk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="96">
   <si>
     <t>player_agg</t>
   </si>
@@ -223,6 +223,12 @@
     <t>Guglielmo Vicario</t>
   </si>
   <si>
+    <t>Mads Hermansen</t>
+  </si>
+  <si>
+    <t>Alex Palmer</t>
+  </si>
+  <si>
     <t>Lukasz Fabianski</t>
   </si>
   <si>
@@ -265,6 +271,12 @@
     <t>AndrÃ© Onana</t>
   </si>
   <si>
+    <t>Martin DÃºbravka</t>
+  </si>
+  <si>
+    <t>Cole Palmer</t>
+  </si>
+  <si>
     <t>2016-2017</t>
   </si>
   <si>
@@ -287,6 +299,9 @@
   </si>
   <si>
     <t>2023-2024</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
   </si>
 </sst>
 </file>
@@ -644,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +690,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -689,7 +704,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -703,7 +718,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -717,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -725,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -745,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -759,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -773,7 +788,7 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -787,7 +802,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -801,7 +816,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -815,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -829,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -837,13 +852,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -857,7 +872,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -871,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -885,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -899,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -913,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -927,7 +942,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -941,7 +956,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -955,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -963,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -983,7 +998,7 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -997,7 +1012,7 @@
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1005,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1019,13 +1034,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1039,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1053,7 +1068,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1061,13 +1076,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1081,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1095,7 +1110,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1109,7 +1124,7 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1123,7 +1138,7 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1137,7 +1152,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1145,13 +1160,13 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1165,7 +1180,7 @@
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1179,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1193,7 +1208,7 @@
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1207,7 +1222,7 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1221,7 +1236,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1235,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1243,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1257,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1277,7 +1292,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1285,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1305,7 +1320,7 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1319,7 +1334,7 @@
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1333,7 +1348,7 @@
         <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1347,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1361,7 +1376,7 @@
         <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1375,7 +1390,7 @@
         <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1389,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1403,7 +1418,7 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1411,13 +1426,13 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1431,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1445,7 +1460,7 @@
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1459,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1473,7 +1488,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1487,7 +1502,7 @@
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1501,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1509,13 +1524,13 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62">
         <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1523,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1543,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1557,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1571,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1585,7 +1600,7 @@
         <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1599,7 +1614,7 @@
         <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1613,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1627,7 +1642,7 @@
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1641,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1655,7 +1670,7 @@
         <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1669,7 +1684,7 @@
         <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1683,7 +1698,7 @@
         <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1697,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1711,7 +1726,7 @@
         <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1725,7 +1740,7 @@
         <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1739,7 +1754,7 @@
         <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1753,7 +1768,7 @@
         <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1767,7 +1782,7 @@
         <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1775,13 +1790,13 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1789,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C82">
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1809,7 +1824,7 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1823,7 +1838,7 @@
         <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1837,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1851,7 +1866,7 @@
         <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1865,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1879,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1887,13 +1902,13 @@
         <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C89">
         <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1907,7 +1922,7 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1921,7 +1936,7 @@
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1935,7 +1950,7 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1949,7 +1964,7 @@
         <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1963,7 +1978,7 @@
         <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1977,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1985,13 +2000,13 @@
         <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96">
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2005,7 +2020,7 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2013,13 +2028,13 @@
         <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C98">
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2027,13 +2042,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C99">
         <v>88</v>
       </c>
       <c r="D99" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2047,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2061,7 +2076,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2075,7 +2090,7 @@
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2089,7 +2104,7 @@
         <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2103,7 +2118,7 @@
         <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2117,7 +2132,7 @@
         <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2125,13 +2140,13 @@
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C106">
         <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2145,7 +2160,7 @@
         <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2159,7 +2174,7 @@
         <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2173,7 +2188,7 @@
         <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2187,7 +2202,7 @@
         <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2201,7 +2216,7 @@
         <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2215,7 +2230,7 @@
         <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2223,13 +2238,13 @@
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C113">
         <v>74</v>
       </c>
       <c r="D113" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2237,13 +2252,13 @@
         <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C114">
         <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2257,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2271,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2285,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="D117" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2293,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C118">
         <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2313,7 +2328,7 @@
         <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2321,13 +2336,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120">
         <v>73</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2341,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2355,7 +2370,7 @@
         <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2369,7 +2384,7 @@
         <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2383,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2391,13 +2406,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C125">
         <v>82</v>
       </c>
       <c r="D125" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2411,7 +2426,7 @@
         <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2425,7 +2440,7 @@
         <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2439,7 +2454,7 @@
         <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2453,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2467,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2481,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2489,13 +2504,13 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C132">
         <v>74</v>
       </c>
       <c r="D132" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2503,13 +2518,13 @@
         <v>50</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C133">
         <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2523,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2537,7 +2552,7 @@
         <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2551,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="D136" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2559,13 +2574,13 @@
         <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>97</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2579,7 +2594,7 @@
         <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2593,7 +2608,7 @@
         <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2607,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2621,7 +2636,7 @@
         <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2635,7 +2650,7 @@
         <v>100</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2643,13 +2658,13 @@
         <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C143">
         <v>97</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2663,7 +2678,7 @@
         <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2671,13 +2686,13 @@
         <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C145">
         <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2691,7 +2706,7 @@
         <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2705,7 +2720,7 @@
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2713,13 +2728,13 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C148">
         <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2733,7 +2748,7 @@
         <v>100</v>
       </c>
       <c r="D149" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2747,7 +2762,7 @@
         <v>100</v>
       </c>
       <c r="D150" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2761,7 +2776,7 @@
         <v>100</v>
       </c>
       <c r="D151" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2769,13 +2784,13 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C152">
         <v>74</v>
       </c>
       <c r="D152" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2783,13 +2798,13 @@
         <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C153">
         <v>100</v>
       </c>
       <c r="D153" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2803,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="D154" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2817,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2831,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="D156" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2845,7 +2860,7 @@
         <v>100</v>
       </c>
       <c r="D157" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2859,7 +2874,7 @@
         <v>100</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2873,7 +2888,287 @@
         <v>100</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160">
+        <v>100</v>
+      </c>
+      <c r="D160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161">
+        <v>100</v>
+      </c>
+      <c r="D161" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166">
+        <v>97</v>
+      </c>
+      <c r="D166" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168">
+        <v>82</v>
+      </c>
+      <c r="D168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+      <c r="D170" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171">
+        <v>82</v>
+      </c>
+      <c r="D171" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+      <c r="D172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175">
+        <v>74</v>
+      </c>
+      <c r="D175" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+      <c r="D177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>68</v>
+      </c>
+      <c r="B179" t="s">
+        <v>68</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
